--- a/medicine/Enfance/Voyage_au_centre_de_la_Terre/Voyage_au_centre_de_la_Terre.xlsx
+++ b/medicine/Enfance/Voyage_au_centre_de_la_Terre/Voyage_au_centre_de_la_Terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Voyage au centre de la Terre est un roman d'aventures, écrit en 1864 par Jules Verne. Cette fiction souterraine fut publiée en édition originale in-18 le 25 novembre 1864, puis en grand in-octavo le 13 mai 1867. Le texte de 1867 comporte deux chapitres de plus (45 au lieu de 43) que celui de 1864[1]. Voyage au centre de la Terre est le troisième roman d'aventure que publie Jules Verne après Cinq Semaines en ballon  paru en 1863 puis Les Aventures du capitaine Hatteras paru en 1864[2].
+Voyage au centre de la Terre est un roman d'aventures, écrit en 1864 par Jules Verne. Cette fiction souterraine fut publiée en édition originale in-18 le 25 novembre 1864, puis en grand in-octavo le 13 mai 1867. Le texte de 1867 comporte deux chapitres de plus (45 au lieu de 43) que celui de 1864. Voyage au centre de la Terre est le troisième roman d'aventure que publie Jules Verne après Cinq Semaines en ballon  paru en 1863 puis Les Aventures du capitaine Hatteras paru en 1864.
 Le roman raconte la découverte d'un manuscrit runique ancien par un savant allemand qui, avec son neveu et leur guide, entreprend un voyage vers le centre de la Terre en y entrant par un volcan islandais éteint, le Sneffels (c'est-à-dire le Snæfellsjökull).
 Le roman est un mélange de données scientifiques, d'extrapolations osées et d'aventure très représentatif de ce que Verne publie par la suite. L'introduction du roman reflète l'engouement d'alors pour une science jeune, la cryptologie[a]. La suite enchaîne sur une description de l'Islande de la fin du XIXe siècle, puis sur une vaste introduction à deux autres sciences en plein essor, la paléontologie et la géologie.
 </t>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le narrateur est Axel Lidenbrock, neveu d’un éminent géologue et naturaliste allemand, le professeur de minéralogie Otto Lidenbrock. L’histoire commence le 24 mai 1863 à Hambourg et plus exactement dans la Königstraße, rue où est située la maison du Pr Lidenbrock. Le professeur, amateur de vieux livres, a acheté le manuscrit original d'une saga islandaise, Heimskringla, écrite par Snorre Turleson (Snorri Sturluson) au XIIe siècle. Il y découvre un parchemin codé, rédigé en caractères runiques islandais. Lidenbrock se passionne aussitôt pour ce cryptogramme et tyrannise toute la maison tant qu'il lui résiste. Axel, d'abord peu enthousiaste, se prend peu à peu au jeu et finit par découvrir la clé du message par un coup de chance. Le parchemin se révèle être un message d'un certain Arne Saknussemm, un alchimiste islandais du XVIe siècle, rédigé en latin mais écrit en runes. Celui-ci affirme avoir découvert un passage qui l'aurait mené jusqu'au centre de la Terre, via l'un des cratères d'un volcan éteint d'Islande, le Sneffels (l'actuel Snæfellsjökull).
 Le professeur Otto Lidenbrock est un homme enthousiaste et impétueux. Il décide de partir dès le lendemain pour l’Islande, emmenant avec lui son neveu Axel, beaucoup plus réticent. L'oncle et le neveu sont en désaccord sur la possibilité pratique d'un tel voyage, qui va à l'encontre de la théorie la plus répandue sur la composition de l'intérieur de la planète, la théorie de la chaleur centrale, soutenue notamment par Siméon Denis Poisson : Axel s'en fait le défenseur, tandis que Lidenbrock, plus influencé par les théories de Humphry Davy selon qui les températures profondes sont moins élevées, est déterminé à mettre l'hypothèse de la chaleur centrale à l'épreuve des faits. Par ailleurs, Axel est retenu à Hambourg par les sentiments qui le lient à la pupille de Lidenbrock, Graüben, une Virlandaise avec qui il s'est fiancé à l'insu du professeur ; mais celle-ci l'encourage au contraire à accomplir ce voyage, espérant qu'ils se marieront à son retour. Deux jours à peine après le déchiffrement du message, Lidenbrock et Axel se mettent donc en route, non sans de fiévreux préparatifs de la part du professeur, qui se pourvoit d'un matériel abondant correspondant au dernier cri technologique de l'époque (notamment les appareils de Ruhmkorff fournissant un moyen d'éclairage sûr, et le fulmicoton, un puissant explosif). Lidenbrock se hâte, car les indications fournies par Saknussemm sur l'emplacement exact du cratère à emprunter se fondent sur l'ombre projetée par un pic rocheux à la fin du mois de juin, et le trajet jusqu'en Islande leur prendra du temps.
@@ -554,20 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le professeur Otto Lidenbrock
-C'est le personnage principal du roman. Professeur de minéralogie au Johannæum de Hambourg, oncle d'Axel qu'il a fait profiter de ses connaissances, il est présenté comme un grand spécialiste dans son domaine (Verne lui fait fréquenter des spécialistes comme Humphry Davy[3]), d'une grande érudition et polyglotte (il est indiqué qu'il parle de nombreuses langues et, au cours de l'intrigue, il lit le vieil islandais et les runes, lit et parle le latin, le danois et l'islandais). Mais c'est aussi un excentrique au tempérament impatient, impulsif et irascible (renforcé par sa tendance à s'embrouiller dans la prononciation des termes scientifiques compliqués), et peu accessible aux sentiments ordinaires. Passionné par son domaine de recherche, il est aussi doté d'une volonté inflexible et ne renonce jamais. Il s'humanise un peu au contact d'Axel au fil du voyage.
-Axel
-Orphelin, neveu et aide-préparateur du professeur Lidenbrock, il est le narrateur du roman. Doté de solides connaissances en géologie et en minéralogie transmises par son oncle, il a aussi une bonne culture classique, en particulier en latin. D'un tempérament plus calme et mesuré que son oncle, quoique son romantisme le porte parfois à l'exaltation, il est peu intéressé par le cryptogramme au départ. C'est lui qui déchiffre le message d'Arne Saknussem. Il reste longtemps réticent et incrédule devant la possibilité même du voyage entrepris par son oncle. Il l'accompagne néanmoins dans l'expédition vers le centre de la Terre, devient progressivement aussi enthousiaste que lui et mesure ses qualités humaines dans les moments difficiles. Axel est fiancé à Graüben, pupille de Lidenbrock.Le voyage d'Axel à travers le centre de la Terre s'apparente à un parcours initiatique qui va faire de lui, jeune homme « au caractère un peu indécis », aidant son oncle, un adulte à part entière, capable de transmettre un savoir à son tour, comme lorsqu'il explique le mystère de la boussole au professeur Lidenbrock.
-Hans Bjelke
-Chasseur d'eider islandais, il est engagé par Otto Lidenbrock comme serviteur et guide à Reykjavik sur les conseils de son collègue Fridriksson. Il est le troisième membre de l'expédition vers le centre de la Terre. Verne en fait l'archétype du serviteur fidèle, dévoué et bon à tout faire, qui sauve plusieurs fois la vie de ses maîtres. Hans est aussi l'incarnation des stéréotypes de l'époque sur les Islandais : d'un flegme et d'une impassibilité totales, il ne trahit presque jamais la moindre émotion au cours du voyage, quels que soient les découvertes ou les périls rencontrés.
-Graüben
-Pupille et filleule du professeur Lidenbrock, elle n'apparaît que brièvement au début du roman. D'un caractère doux et réservé, c'est la fiancée d'Axel, qu'elle encourage néanmoins à suivre Lidenbrock dans son voyage. Elle est appelée la Virlandaise, allusion au fait qu'elle vient du quartier de Vierlande à Hambourg.
-Marthe
-C'est la domestique et cuisinière du professeur Lidenbrock. Elle apparaît brièvement au début du roman, effrayée et tyrannisée par le caractère excentrique du minéralogiste. C'est elle qui prévient toute la ville du voyage au centre de la Terre du professeur et de son neveu.
-Arne Saknussemm
-Il n'apparaît jamais directement, mais son ombre plane sur le roman : il est le prédécesseur de Lidenbrock, et c'est son cryptogramme qui fournit aux personnages le chemin vers le centre de la Terre, qu'il a lui-même atteint à son époque, au XVIe siècle. Il est présenté comme un grand naturaliste, un grand alchimiste et un grand voyageur, persécuté pour hérésie et dont les livres sont brûlés à Copenhague en 1573[4].
-Le professeur Fridriksson
-Professeur de sciences naturelles à Reykjavik, il n'apparaît que pendant une courte séquence du roman. Il accueille et héberge Lidenbrock et Axel, et c'est lui qui leur recommande Hans Bjelke. Il converse avec Lidenbrock en islandais et discute avec Axel en latin car c'est leur seule langue commune.
+          <t>Le professeur Otto Lidenbrock</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le personnage principal du roman. Professeur de minéralogie au Johannæum de Hambourg, oncle d'Axel qu'il a fait profiter de ses connaissances, il est présenté comme un grand spécialiste dans son domaine (Verne lui fait fréquenter des spécialistes comme Humphry Davy), d'une grande érudition et polyglotte (il est indiqué qu'il parle de nombreuses langues et, au cours de l'intrigue, il lit le vieil islandais et les runes, lit et parle le latin, le danois et l'islandais). Mais c'est aussi un excentrique au tempérament impatient, impulsif et irascible (renforcé par sa tendance à s'embrouiller dans la prononciation des termes scientifiques compliqués), et peu accessible aux sentiments ordinaires. Passionné par son domaine de recherche, il est aussi doté d'une volonté inflexible et ne renonce jamais. Il s'humanise un peu au contact d'Axel au fil du voyage.
 </t>
         </is>
       </c>
@@ -593,14 +600,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Premières traductions</t>
+          <t>Les personnages</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(en) « A Journey to the Centre of the Earth », dans Boys’ Journal, A Magazine of Literature, Science and Amusement, vol. 8, Londres, Henry Vickers, janvier-décembre 1870[5].
-(de) Die Reise zum Mittelpunkt der Erde, Budapest, Gebrüder Légrády, 1873.
-(en) Journey into the interior of the Earth, Londres, Ward Lock &amp; Co. Ltd., 1877.</t>
+          <t>Axel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orphelin, neveu et aide-préparateur du professeur Lidenbrock, il est le narrateur du roman. Doté de solides connaissances en géologie et en minéralogie transmises par son oncle, il a aussi une bonne culture classique, en particulier en latin. D'un tempérament plus calme et mesuré que son oncle, quoique son romantisme le porte parfois à l'exaltation, il est peu intéressé par le cryptogramme au départ. C'est lui qui déchiffre le message d'Arne Saknussem. Il reste longtemps réticent et incrédule devant la possibilité même du voyage entrepris par son oncle. Il l'accompagne néanmoins dans l'expédition vers le centre de la Terre, devient progressivement aussi enthousiaste que lui et mesure ses qualités humaines dans les moments difficiles. Axel est fiancé à Graüben, pupille de Lidenbrock.Le voyage d'Axel à travers le centre de la Terre s'apparente à un parcours initiatique qui va faire de lui, jeune homme « au caractère un peu indécis », aidant son oncle, un adulte à part entière, capable de transmettre un savoir à son tour, comme lorsqu'il explique le mystère de la boussole au professeur Lidenbrock.
+</t>
         </is>
       </c>
     </row>
@@ -625,17 +637,276 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hans Bjelke</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chasseur d'eider islandais, il est engagé par Otto Lidenbrock comme serviteur et guide à Reykjavik sur les conseils de son collègue Fridriksson. Il est le troisième membre de l'expédition vers le centre de la Terre. Verne en fait l'archétype du serviteur fidèle, dévoué et bon à tout faire, qui sauve plusieurs fois la vie de ses maîtres. Hans est aussi l'incarnation des stéréotypes de l'époque sur les Islandais : d'un flegme et d'une impassibilité totales, il ne trahit presque jamais la moindre émotion au cours du voyage, quels que soient les découvertes ou les périls rencontrés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Graüben</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pupille et filleule du professeur Lidenbrock, elle n'apparaît que brièvement au début du roman. D'un caractère doux et réservé, c'est la fiancée d'Axel, qu'elle encourage néanmoins à suivre Lidenbrock dans son voyage. Elle est appelée la Virlandaise, allusion au fait qu'elle vient du quartier de Vierlande à Hambourg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Marthe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la domestique et cuisinière du professeur Lidenbrock. Elle apparaît brièvement au début du roman, effrayée et tyrannisée par le caractère excentrique du minéralogiste. C'est elle qui prévient toute la ville du voyage au centre de la Terre du professeur et de son neveu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arne Saknussemm</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'apparaît jamais directement, mais son ombre plane sur le roman : il est le prédécesseur de Lidenbrock, et c'est son cryptogramme qui fournit aux personnages le chemin vers le centre de la Terre, qu'il a lui-même atteint à son époque, au XVIe siècle. Il est présenté comme un grand naturaliste, un grand alchimiste et un grand voyageur, persécuté pour hérésie et dont les livres sont brûlés à Copenhague en 1573.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le professeur Fridriksson</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur de sciences naturelles à Reykjavik, il n'apparaît que pendant une courte séquence du roman. Il accueille et héberge Lidenbrock et Axel, et c'est lui qui leur recommande Hans Bjelke. Il converse avec Lidenbrock en islandais et discute avec Axel en latin car c'est leur seule langue commune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Premières traductions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) « A Journey to the Centre of the Earth », dans Boys’ Journal, A Magazine of Literature, Science and Amusement, vol. 8, Londres, Henry Vickers, janvier-décembre 1870.
+(de) Die Reise zum Mittelpunkt der Erde, Budapest, Gebrüder Légrády, 1873.
+(en) Journey into the interior of the Earth, Londres, Ward Lock &amp; Co. Ltd., 1877.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sources de Verne
-Parmi les sources d'inspiration littéraires de Jules Verne figure au premier chef Laura, voyage dans le cristal, un roman fantastique publié par George Sand dans la Revue des Deux Mondes en janvier 1864. Tandis que Verne en est encore au tout début de sa carrière littéraire, George Sand est une auteure bien installée, célèbre depuis son roman Indiana, et il est plus que probable que Verne a lu Laura. Les deux romans ont en commun de nombreux éléments, à commencer par les personnages : chez Sand, le narrateur est un nommé Alexis, neveu d'un célèbre minéralogiste allemand appelé Tungsténius, et il est amoureux de sa cousine Laura, personnage beaucoup plus présent et actif que Graüben chez Verne. Le roman de Sand, comme celui de Verne après elle, revendique une dimension éducative et mobilise un vocabulaire scientifique très précis. Les deux romans partagent en outre une dimension initiatique au fil des épreuves du jeune héros[6].
-Jules Verne a probablement aussi été influencé par les récits d'Edgar Allan Poe où l'on trouve de nombreuses énigmes et cryptogrammes, comme celui qui ouvre Voyage au centre de la Terre, et chez qui le voyage consiste souvent moins en une découverte absolue qu'en une redécouverte, une énigme à reconstituer sur la piste d'un voyageur plus ancien, comme c'est le cas des héros de Verne qui suivent les traces d'un ancien voyageur, Arne Saknussemm[7].
-Le professeur Lidenbrock est l'une des premières parmi les nombreuses figures de savants qui apparaissent dans les Voyages extraordinaires : étroitement associés à leur lieu et à leurs instruments de travail, ces savants sont grandioses par leur dévouement sans bornes à la science et par leur éthique qui fait d'eux des exemples moraux, mais ils ont aussi leurs ridicules, ici la distraction de Lidenbrock et ses quelques colères. Le roman se nourrit donc à la fois d'une vision progressiste du savant et d'une vision plus ambiguë héritée du romantisme et du fantastique hoffmanien où le savant est un original dont l'excentricité peut virer à la folie ou qui peut tourner au sorcier[8].
-Thèmes abordés dans le roman
-L’étude de la cryptologie (déchiffrement des runes pour pouvoir aller au centre de la Terre)
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les sources de Verne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les sources d'inspiration littéraires de Jules Verne figure au premier chef Laura, voyage dans le cristal, un roman fantastique publié par George Sand dans la Revue des Deux Mondes en janvier 1864. Tandis que Verne en est encore au tout début de sa carrière littéraire, George Sand est une auteure bien installée, célèbre depuis son roman Indiana, et il est plus que probable que Verne a lu Laura. Les deux romans ont en commun de nombreux éléments, à commencer par les personnages : chez Sand, le narrateur est un nommé Alexis, neveu d'un célèbre minéralogiste allemand appelé Tungsténius, et il est amoureux de sa cousine Laura, personnage beaucoup plus présent et actif que Graüben chez Verne. Le roman de Sand, comme celui de Verne après elle, revendique une dimension éducative et mobilise un vocabulaire scientifique très précis. Les deux romans partagent en outre une dimension initiatique au fil des épreuves du jeune héros.
+Jules Verne a probablement aussi été influencé par les récits d'Edgar Allan Poe où l'on trouve de nombreuses énigmes et cryptogrammes, comme celui qui ouvre Voyage au centre de la Terre, et chez qui le voyage consiste souvent moins en une découverte absolue qu'en une redécouverte, une énigme à reconstituer sur la piste d'un voyageur plus ancien, comme c'est le cas des héros de Verne qui suivent les traces d'un ancien voyageur, Arne Saknussemm.
+Le professeur Lidenbrock est l'une des premières parmi les nombreuses figures de savants qui apparaissent dans les Voyages extraordinaires : étroitement associés à leur lieu et à leurs instruments de travail, ces savants sont grandioses par leur dévouement sans bornes à la science et par leur éthique qui fait d'eux des exemples moraux, mais ils ont aussi leurs ridicules, ici la distraction de Lidenbrock et ses quelques colères. Le roman se nourrit donc à la fois d'une vision progressiste du savant et d'une vision plus ambiguë héritée du romantisme et du fantastique hoffmanien où le savant est un original dont l'excentricité peut virer à la folie ou qui peut tourner au sorcier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Thèmes abordés dans le roman</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L’étude de la cryptologie (déchiffrement des runes pour pouvoir aller au centre de la Terre)
 La spéléologie (par la découverte des profondeurs de la Terre)
 La paléontologie (découverte d’animaux préhistoriques qu’on pensait disparus et du cadavre de l’homme quaternaire)
 La minéralogie (science incarnée par le professeur Lidenbrock) [également perceptible dans Les Enfants du capitaine Grant]
@@ -644,71 +915,349 @@
 L'aventure
 L'amour (Axel est amoureux de Graüben)
 Le voyage (Axel, Otto et Hans partent pour le centre de la Terre)
-La survie (Tout au long de l'histoire les trois aventuriers sont confrontés à peu de nourriture )
-Contenu scientifique du roman
-Une célèbre planche d'illustration d'Édouard Riou présente une grotte contenant des cristaux géants – ce que Jules Verne n'indique pas dans le roman, présentant seulement la « lumière des appareils, répercutée par les petites facettes de la masse rocheuse, crois[ant] ses jets de feu sous tous les angles » –, dont il n'était connu aucun exemple réel jusqu'à la découverte au début des années 2000 de cristaux de grande taille au Mexique, dans la mine de Naïca[9].
-La possibilité d'une mer souterraine semblable à la mer Lidenbrock est réfutée par les connaissances géologiques actuelles, car la caverne gigantesque qui la contient ne pourrait pas résister aux pressions énormes propres à ces profondeurs ; en revanche, la présence d'une grande quantité d'eau enfermée ou infiltrée dans des roches solides est considérée comme probable, mais on ignore encore précisément jusqu'à quelle profondeur elle pourrait se trouver[10].
+La survie (Tout au long de l'histoire les trois aventuriers sont confrontés à peu de nourriture )</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Contenu scientifique du roman</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une célèbre planche d'illustration d'Édouard Riou présente une grotte contenant des cristaux géants – ce que Jules Verne n'indique pas dans le roman, présentant seulement la « lumière des appareils, répercutée par les petites facettes de la masse rocheuse, crois[ant] ses jets de feu sous tous les angles » –, dont il n'était connu aucun exemple réel jusqu'à la découverte au début des années 2000 de cristaux de grande taille au Mexique, dans la mine de Naïca.
+La possibilité d'une mer souterraine semblable à la mer Lidenbrock est réfutée par les connaissances géologiques actuelles, car la caverne gigantesque qui la contient ne pourrait pas résister aux pressions énormes propres à ces profondeurs ; en revanche, la présence d'une grande quantité d'eau enfermée ou infiltrée dans des roches solides est considérée comme probable, mais on ignore encore précisément jusqu'à quelle profondeur elle pourrait se trouver.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Voyage_au_centre_de_la_Terre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au théâtre
-De son vivant, Jules Verne, qui est également dramaturge, écrit en collaboration avec Adolphe Dennery une pièce de théâtre intitulée Voyage à travers l'Impossible, qui est créée le 25 novembre 1882 à Paris, au théâtre de la Porte-Saint-Martin. Sans être une adaptation exacte de Voyage au centre de la Terre, la pièce reprend de nombreux personnages et thèmes issus de plusieurs romans de Verne, dont l'idée d'un voyage au centre de la Terre. Cependant, la pièce oriente l'aventure vers le fantastique, en mettant notamment en scène un peuple salamandre vivant au centre de la Terre.
-Au cinéma
-Le roman a connu plusieurs adaptations au cinéma, plus ou moins libres :
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De son vivant, Jules Verne, qui est également dramaturge, écrit en collaboration avec Adolphe Dennery une pièce de théâtre intitulée Voyage à travers l'Impossible, qui est créée le 25 novembre 1882 à Paris, au théâtre de la Porte-Saint-Martin. Sans être une adaptation exacte de Voyage au centre de la Terre, la pièce reprend de nombreux personnages et thèmes issus de plusieurs romans de Verne, dont l'idée d'un voyage au centre de la Terre. Cependant, la pièce oriente l'aventure vers le fantastique, en mettant notamment en scène un peuple salamandre vivant au centre de la Terre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le roman a connu plusieurs adaptations au cinéma, plus ou moins libres :
 1959 : Voyage au centre de la Terre (Journey to the Center of the Earth) réalisé par Henry Levin avec James Mason, Pat Boone, Peter Ronson et Arlene Dahl.
 1976 : Le Continent fantastique (Viaje al centro de la Tierra), film espagnol de Juan Piquer Simón, sur un scénario de lui-même, John Melson et Carlos Puerto.
 2008 : Voyage au centre de la Terre (Journey to the Center of the Earth). Sorti en  juillet 2008 aux États-Unis, réalisé par Eric Brevig, avec Brendan Fraser, Josh Hutcherson, Anita Briem, où l'univers de Verne se trouve transposé au début du XXIe siècle.
-2012 : Voyage au centre de la Terre 2 : L'Île mystérieuse (Journey 2: The Mysterious Island). Sorti en février 2012 aux États-Unis, réalisé par Brad Peyton, avec Dwayne Johnson, Michael Caine, Josh Hutcherson et Vanessa Hudgens. Suite du film Voyage au centre de la Terre de 2008, ce film est surtout une adaptation de L'Île mystérieuse.
-À la télévision
-1967 : Journey to the Center of the Earth, série d'animation américaine de 17 épisodes de 30 minutes, produite par Filmation en association avec 20th Century Fox, diffusée entre septembre 1967 et septembre 1969 sur l'émission ABC Saturday Morning, avec la voix de Ted Knight.
+2012 : Voyage au centre de la Terre 2 : L'Île mystérieuse (Journey 2: The Mysterious Island). Sorti en février 2012 aux États-Unis, réalisé par Brad Peyton, avec Dwayne Johnson, Michael Caine, Josh Hutcherson et Vanessa Hudgens. Suite du film Voyage au centre de la Terre de 2008, ce film est surtout une adaptation de L'Île mystérieuse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1967 : Journey to the Center of the Earth, série d'animation américaine de 17 épisodes de 30 minutes, produite par Filmation en association avec 20th Century Fox, diffusée entre septembre 1967 et septembre 1969 sur l'émission ABC Saturday Morning, avec la voix de Ted Knight.
 1993 : Voyage au centre de la Terre (Journey to the Center of the Earth), pilote d'une série qui ne verra jamais le jour, produite et diffusée sur la NBC.
 1999 : Voyage au centre de la Terre (Journey to the Center of the Earth), feuilleton télévisé en deux parties, réalisé par George Trumbull Miller. Scénario très éloigné aussi bien du roman de Jules Verne que de l'adaptation, déjà libre, qui en avait été faite en 1959.
 2008 : Voyage au centre de la Terre (Journey to the Center of the Earth), téléfilm américain réalisé par David Jones et Scott Wheeler avec Greg Evigan, Dedee Pfeiffer, Jennifer Dorogi.
-2008 : Voyage au centre de la Terre (Journey to the Center of the Earth), téléfilm américain réalisé par T.J. Scott avec Rick Schroder, Victoria Pratt et Peter Fonda.
-En bandes dessinées
-1978 : Voyage au centre de la Terre, texte de Roudolph, dessins de Renato Polese, Sagédition.
+2008 : Voyage au centre de la Terre (Journey to the Center of the Earth), téléfilm américain réalisé par T.J. Scott avec Rick Schroder, Victoria Pratt et Peter Fonda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>En bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1978 : Voyage au centre de la Terre, texte de Roudolph, dessins de Renato Polese, Sagédition.
 1990 : Voyage au centre de la Terre, dessins de Claude Laverdure, scénario de Luc Dellisse, éditions Lefrancq.
 2009 : Voyage au centre de la Terre, texte de Patrice Cartier, dessins de Édouard Riou, Éditions du Mont.
 2015 : Voyage au centre de la Terre, texte et dessins de Norihiko Kurazono, Éditions Kadokawa.
 2017 : Voyage au centre de la Terre, texte et dessins de Matteo Berton, La Pastèque.
-2021 : Voyage au centre de la Terre, scénario de Curt Ridel et dessins de Frédéric Garcia, Glénat Les Grands Classiques de la littérature en bande dessinée.
-En podcast
-Podcast en 22 épisodes de 11 à 21 minutes[11].
-En jeu vidéo
-2003 : Voyage au centre de la Terre, un jeu vidéo développé par Frogwares directement inspiré du roman de Jules Verne.
-1988 : un jeu vidéo édité par US GOLD pour les plateformes Atari ST, Amiga et PC (support disquettes).
-En musique
-1974 : Journey to the Centre of the Earth, par Rick Wakeman, album en concert avec chœur et orchestre. L'album se compose de quatre titres (The Journey, Recollection, The Battle et The Forest) entrecoupés de lectures du roman. Wakeman réenregistrera en 2005 l'album en version plus rock, en un seul morceau de 32 minutes et sans les lectures. De même, Wakeman ajoutera une suite à cet album en 1999 : Return to the Centre of the Earth.
-2003 : adapté par Olivier Cohen et raconté par Jean-Claude Dreyfus et Michel Aumont, musique André Serre-Milan, Naive , U 318054.
-En attraction
-Journey to the Center of the Earth, une attraction du parc Tokyo DisneySea, s'inspire librement du roman de Jules Verne et offre aux visiteurs une excursion dans les profondeurs de la Terre, selon l'atmosphère du roman. Cette attraction intègre une zone plus vaste (Mysterious Island), s'étendant autour du mont Prometheus et comprenant aussi l'attraction 20,000 Leagues Under the Sea.
+2021 : Voyage au centre de la Terre, scénario de Curt Ridel et dessins de Frédéric Garcia, Glénat Les Grands Classiques de la littérature en bande dessinée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>En podcast</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Podcast en 22 épisodes de 11 à 21 minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>En jeu vidéo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2003 : Voyage au centre de la Terre, un jeu vidéo développé par Frogwares directement inspiré du roman de Jules Verne.
+1988 : un jeu vidéo édité par US GOLD pour les plateformes Atari ST, Amiga et PC (support disquettes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>En musique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1974 : Journey to the Centre of the Earth, par Rick Wakeman, album en concert avec chœur et orchestre. L'album se compose de quatre titres (The Journey, Recollection, The Battle et The Forest) entrecoupés de lectures du roman. Wakeman réenregistrera en 2005 l'album en version plus rock, en un seul morceau de 32 minutes et sans les lectures. De même, Wakeman ajoutera une suite à cet album en 1999 : Return to the Centre of the Earth.
+2003 : adapté par Olivier Cohen et raconté par Jean-Claude Dreyfus et Michel Aumont, musique André Serre-Milan, Naive , U 318054.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voyage_au_centre_de_la_Terre</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>En attraction</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Journey to the Center of the Earth, une attraction du parc Tokyo DisneySea, s'inspire librement du roman de Jules Verne et offre aux visiteurs une excursion dans les profondeurs de la Terre, selon l'atmosphère du roman. Cette attraction intègre une zone plus vaste (Mysterious Island), s'étendant autour du mont Prometheus et comprenant aussi l'attraction 20,000 Leagues Under the Sea.
 </t>
         </is>
       </c>
